--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SourceCode\New folder\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,11 +602,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,15 +641,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,14 +650,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -946,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B7" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,57 +996,57 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:18" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
@@ -1077,10 +1083,10 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="47"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
@@ -1103,43 +1109,43 @@
     </row>
     <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="35" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="38" t="s">
         <v>42</v>
       </c>
       <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="27" t="s">
         <v>43</v>
       </c>
@@ -1152,28 +1158,28 @@
       <c r="H8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="33"/>
+      <c r="M8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="39" t="s">
+      <c r="N8" s="33"/>
+      <c r="O8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="40"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="27" t="s">
         <v>45</v>
       </c>
@@ -1230,52 +1236,52 @@
       <c r="B10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="47" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1351,22 +1357,22 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="20"/>
     </row>
@@ -1386,11 +1392,11 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
     </row>
@@ -1482,11 +1488,11 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -1710,13 +1716,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:D8"/>
@@ -1731,6 +1730,13 @@
     <mergeCell ref="F2:R2"/>
     <mergeCell ref="F3:R3"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SourceCode\New folder\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$10:$R$10</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$14:$R$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$R$20</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$15:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$R$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$6:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -177,12 +177,6 @@
     <t>VNĐ</t>
   </si>
   <si>
-    <t>Đơn vị cấp trên</t>
-  </si>
-  <si>
-    <t>Đơn vị tối mật</t>
-  </si>
-  <si>
     <t xml:space="preserve">NHU CẦU SỬ DỤNG KINH PHÍ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI              </t>
   </si>
   <si>
@@ -238,13 +232,44 @@
   </si>
   <si>
     <t>Đơn vị tính: &lt;#sDvTinhUSD&gt;USD, &lt;#sDvTinhVND&gt;VNĐ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ghi chú:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ (*) Trường hợp Quyết định có điều chỉnh thì ghi theo Quyết định điều chỉnh đến thời điểm lập kế hoạch </t>
+    </r>
+  </si>
+  <si>
+    <t>ĐƠN VỊ CẤP TRÊN</t>
+  </si>
+  <si>
+    <t>ĐƠN VỊ CẤP DƯỚI</t>
+  </si>
+  <si>
+    <t>Mẫu số 01/NCKP-QNH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,14 +342,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -332,8 +349,27 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +394,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -548,7 +590,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -575,10 +617,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,72 +637,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -950,10 +1007,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B7" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,250 +1039,252 @@
         <v>25</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-    </row>
-    <row r="3" spans="1:18" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
-      <c r="C3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="45" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="30"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="31" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="38" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="31" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
     </row>
     <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="51" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1234,488 +1293,533 @@
         <v>0</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="E10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="F10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="H10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="48" t="s">
+      <c r="K10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="48" t="s">
+      <c r="N10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="O10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-    </row>
-    <row r="13" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="28"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="26"/>
+      <c r="O14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="C15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="H15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="O15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="30" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="H21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="20"/>
-    </row>
-    <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:D8"/>
@@ -1725,18 +1829,9 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="F2:R2"/>
     <mergeCell ref="F3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$R$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$6:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,20 +256,20 @@
     </r>
   </si>
   <si>
-    <t>ĐƠN VỊ CẤP TRÊN</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ CẤP DƯỚI</t>
-  </si>
-  <si>
     <t>Mẫu số 01/NCKP-QNH</t>
+  </si>
+  <si>
+    <t>&lt;#sDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sDonViCapDuoi&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -396,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +604,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -656,30 +670,39 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1009,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:R3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,61 +1079,61 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="33"/>
-    </row>
-    <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-    </row>
-    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1126,7 +1152,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -1140,12 +1166,10 @@
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
-      <c r="O5" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
@@ -1160,131 +1184,133 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="N6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="44" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="42" t="s">
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="47"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44" t="s">
+      <c r="N8" s="48"/>
+      <c r="O8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="54" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1423,51 +1449,52 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="26"/>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="H15" s="36" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="H15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="20"/>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
@@ -1475,26 +1502,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="20"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -1504,16 +1536,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="20"/>
       <c r="R19" s="20"/>
     </row>
@@ -1522,15 +1554,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
     </row>
@@ -1538,17 +1571,18 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="H21" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
@@ -1577,15 +1611,15 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -1808,18 +1842,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="C3:P3"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="O15:R15"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C16:E20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H16:L20"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:D8"/>
@@ -1829,9 +1865,7 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1850,7 +1884,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -89,27 +89,15 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>fmHeader</t>
-  </si>
-  <si>
     <t>AltFormat</t>
   </si>
   <si>
-    <t>&lt;#if(&lt;#dt.depth&gt;="0";&lt;#format cell(ItemsFormat)&gt;;)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
-  </si>
-  <si>
     <t>ItemsFormat(Font.Style)</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>FormatHeader</t>
-  </si>
-  <si>
-    <t>&lt;#Row height(Autofit; 120)&gt;&lt;#format cell(fmHeader)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#IF(&lt;#To&gt;=1;;&lt;#fRow0&gt;)&gt;</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
   </si>
   <si>
     <t>Nội dung chi</t>
-  </si>
-  <si>
-    <t>Quý &lt;#iQuy&gt; ( Năm &lt;#iNam&gt; )</t>
   </si>
   <si>
     <t>Giá trị hợp đồng hoặc dự toán được duyệt</t>
@@ -184,51 +169,6 @@
   </si>
   <si>
     <t>Ngày …. tháng …. năm ….</t>
-  </si>
-  <si>
-    <t>&lt;#dt.depth&gt;&lt;#AltFormat&gt;. &lt;#dt.Noidungchi&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.GiaTriHopDongUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.GiaTriHopDongVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.GiaTriGaiDoanUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.GiaTriBQPUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fChiNgoaiTeUSDTyGia&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fChiTrongNuocVNDTyGia&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
     <t>Đơn vị tính: &lt;#sDvTinhUSD&gt;USD, &lt;#sDvTinhVND&gt;VNĐ</t>
@@ -264,18 +204,151 @@
   <si>
     <t>&lt;#sDonViCapDuoi&gt;</t>
   </si>
+  <si>
+    <t>fmNumberBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellRight</t>
+  </si>
+  <si>
+    <t>AltFormatRight</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellRight)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeft</t>
+  </si>
+  <si>
+    <t>AltFormatLeft</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeft)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenter</t>
+  </si>
+  <si>
+    <t>AltFormatCenter</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenter)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBold</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenterBold</t>
+  </si>
+  <si>
+    <t>AltFormatCenterBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenterBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBoldVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBoldVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBoldVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellRightBold</t>
+  </si>
+  <si>
+    <t>AltFormatRightBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellRightBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.GiaTriHopDongUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.GiaTriHopDongUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.GiaTriGaiDoanUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.GiaTriGaiDoanUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.GiaTriBQPUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.GiaTriBQPUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.GiaTriHopDongVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.GiaTriHopDongVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.fChiNgoaiTeUSDTyGia&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fChiNgoaiTeUSDTyGia&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.fChiTrongNuocVNDTyGia&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.fChiTrongNuocVNDTyGia&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isSum&gt;="1";&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.Noidungchi&gt;&lt;#AltFormatCenterBold&gt;;&lt;#dt.Noidungchi&gt;&lt;#AltFormatCenter&gt;)&gt;;&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.depth&gt;. &lt;#dt.Noidungchi&gt;&lt;#AltFormatRightBold&gt;;&lt;#dt.depth&gt;. &lt;#dt.Noidungchi&gt;&lt;#AltFormatRight&gt;)&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>Quý &lt;#iQuy&gt; Năm &lt;#iNam&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,12 +392,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -382,6 +449,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -601,58 +686,54 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,10 +742,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,80 +754,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1036,7 +1153,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,707 +1179,707 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-    </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="50"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="53"/>
     </row>
     <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
+      <c r="F8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>64</v>
+      <c r="B10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="26"/>
-      <c r="O14" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="24"/>
+      <c r="O14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
     </row>
     <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="H15" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="20"/>
-      <c r="O15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="H15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="20"/>
-      <c r="R19" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="18"/>
+      <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="H21" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="H21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="27"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
@@ -1842,6 +1959,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="C3:P3"/>
     <mergeCell ref="C21:E21"/>
@@ -1856,16 +1983,6 @@
     <mergeCell ref="C16:E20"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H16:L20"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1878,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H10" sqref="H10:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,31 +2185,138 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="I11" s="61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>24</v>
+      <c r="N11" s="62"/>
+    </row>
+    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H12" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H14" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCaoHD2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\28-8-clonecode\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">Kinh phí đã chi (số đã thanh toán, tạm ứng) </t>
   </si>
   <si>
-    <t>Kinh phí đước cấp từ đầu năm đến cuối quý trước</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kinh phí được cấp (gồm cả số kinh phí chưa chi năm trước chuyển sang nếu có)  </t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>Quý &lt;#iQuy&gt; Năm &lt;#iNam&gt;</t>
+  </si>
+  <si>
+    <t>Kinh phí được cấp từ đầu năm đến cuối quý trước</t>
   </si>
 </sst>
 </file>
@@ -769,66 +769,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -864,6 +804,66 @@
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1153,31 +1153,31 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="M7" sqref="M7:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1196,61 +1196,61 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
-      <c r="Q1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="45"/>
-    </row>
-    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="58"/>
+    </row>
+    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
     </row>
-    <row r="3" spans="1:18" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1269,7 +1269,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -1288,7 +1288,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -1301,193 +1301,193 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-    </row>
-    <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+    </row>
+    <row r="7" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="66"/>
+    </row>
+    <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="53"/>
-    </row>
-    <row r="8" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+    </row>
+    <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="35" t="s">
+      <c r="D9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
-    </row>
-    <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="35" t="s">
+      <c r="F9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="K9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="M9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="O9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="Q9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" ht="168" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="F10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="L10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="29" t="s">
+      <c r="R10" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1507,7 +1507,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1550,7 +1550,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1566,140 +1566,140 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="24"/>
-      <c r="O14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-    </row>
-    <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="H15" s="38" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="H15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="18"/>
-      <c r="O15" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O15" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+    </row>
+    <row r="16" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+    <row r="18" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="H21" s="38" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="H21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -1707,7 +1707,7 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="17"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C22" s="18"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -1724,18 +1724,18 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="31"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -1748,7 +1748,7 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1767,7 +1767,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -1786,7 +1786,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -1805,7 +1805,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -1824,7 +1824,7 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1843,7 +1843,7 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -1862,7 +1862,7 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -1881,7 +1881,7 @@
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1900,7 +1900,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1919,7 +1919,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1938,7 +1938,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2001,12 +2001,12 @@
       <selection activeCell="H10" sqref="H10:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2040,7 +2040,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2074,7 +2074,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2090,7 +2090,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2126,7 +2126,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2184,139 +2184,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>50</v>
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H12" s="37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="H11" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="62"/>
-    </row>
-    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H12" s="57" t="s">
+      <c r="I12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="59" t="s">
+      <c r="N12" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="59" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H13" s="37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="57" t="s">
+      <c r="I13" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="59" t="s">
+      <c r="N13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="59" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H14" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H14" s="57" t="s">
+      <c r="I14" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="13" t="s">
+      <c r="N14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="13" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H15" s="37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H15" s="57" t="s">
+      <c r="I15" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="59" t="s">
+      <c r="N15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="59" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="H16" s="37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="H16" s="57" t="s">
+      <c r="I16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="59" t="s">
+      <c r="N16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="59" t="s">
+    </row>
+    <row r="17" spans="8:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H17" s="57" t="s">
+      <c r="I17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="59" t="s">
+      <c r="N17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="59" t="s">
+    </row>
+    <row r="18" spans="8:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="H18" s="37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="57" t="s">
+      <c r="I18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="59" t="s">
+      <c r="N18" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="59" t="s">
+    </row>
+    <row r="19" spans="8:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H19" s="37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H19" s="57" t="s">
+      <c r="I19" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="59" t="s">
+      <c r="N19" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="N19" s="59" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
